--- a/Bug_report.xlsx
+++ b/Bug_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maste\AndroidStudioProjects\111\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22223180-1D70-45DF-8B85-72BE548D5F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26944B56-ECFE-4BC8-8187-420219F520BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -218,12 +218,6 @@
 20. Нажать на кнопку Сохранить</t>
   </si>
   <si>
-    <t xml:space="preserve">• ОС: Windows 11 Pro x64;
-• CPU Intel(R) Core(TM) i5-13500,  DDR5 32.0 ГБ, SSD 2 TB;
-•Android Studio Ladybug Feature Drop | 2024.2.2 Patch 1;
-• Google Pixel 4, API 29 (вертикальная ор-ция); </t>
-  </si>
-  <si>
     <t>В поле Заголовок в форме добавления новости можно ввести больше 225 символов</t>
   </si>
   <si>
@@ -245,6 +239,12 @@
 7. Нажать на кнопку редактирования списка новостей
 8. Нажать на кнопку +
 9.Ввести в поле данные(текст и числа) более 255 символов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• ОС: Windows 11 Pro x64;
+• CPU Intel(R) Core(TM) i5-13500,  DDR5 32.0 ГБ, SSD 2 TB;
+• Android Studio Ladybug Feature Drop | 2024.2.2 Patch 1;
+• Google Pixel 4, API 29 (вертикальная ор-ция); </t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -428,6 +428,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -734,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -795,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>11</v>
@@ -822,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>15</v>
@@ -849,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>15</v>
@@ -876,7 +879,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F5" s="11" t="s">
         <v>28</v>
@@ -903,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F6" s="11" t="s">
         <v>28</v>
@@ -930,7 +933,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F7" s="11" t="s">
         <v>33</v>
@@ -957,7 +960,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F8" s="11" t="s">
         <v>33</v>
@@ -984,13 +987,13 @@
         <v>30</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>49</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>50</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>51</v>
@@ -1002,27 +1005,30 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>55</v>
       </c>
       <c r="G10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>57</v>
-      </c>
       <c r="I10" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
